--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agrp-Mc4r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Agrp-Mc4r.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3463370000000001</v>
+        <v>0.052073</v>
       </c>
       <c r="H2">
-        <v>1.039011</v>
+        <v>0.156219</v>
       </c>
       <c r="I2">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="J2">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03919966666666667</v>
+        <v>0.006923666666666667</v>
       </c>
       <c r="N2">
-        <v>0.117599</v>
+        <v>0.020771</v>
       </c>
       <c r="O2">
-        <v>0.172457585485283</v>
+        <v>0.01563438526027703</v>
       </c>
       <c r="P2">
-        <v>0.172457585485283</v>
+        <v>0.01563438526027703</v>
       </c>
       <c r="Q2">
-        <v>0.01357629495433334</v>
+        <v>0.0003605360943333334</v>
       </c>
       <c r="R2">
-        <v>0.122186654589</v>
+        <v>0.003244824849</v>
       </c>
       <c r="S2">
-        <v>0.0446493019368842</v>
+        <v>0.0005967020545265846</v>
       </c>
       <c r="T2">
-        <v>0.0446493019368842</v>
+        <v>0.0005967020545265845</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3463370000000001</v>
+        <v>0.052073</v>
       </c>
       <c r="H3">
-        <v>1.039011</v>
+        <v>0.156219</v>
       </c>
       <c r="I3">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="J3">
-        <v>0.2589001916688345</v>
+        <v>0.03816600682360385</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1881006666666667</v>
+        <v>0.435925</v>
       </c>
       <c r="N3">
-        <v>0.5643020000000001</v>
+        <v>1.307775</v>
       </c>
       <c r="O3">
-        <v>0.827542414514717</v>
+        <v>0.9843656147397229</v>
       </c>
       <c r="P3">
-        <v>0.827542414514717</v>
+        <v>0.9843656147397229</v>
       </c>
       <c r="Q3">
-        <v>0.06514622059133335</v>
+        <v>0.022699922525</v>
       </c>
       <c r="R3">
-        <v>0.5863159853220001</v>
+        <v>0.204299302725</v>
       </c>
       <c r="S3">
-        <v>0.2142508897319504</v>
+        <v>0.03756930476907727</v>
       </c>
       <c r="T3">
-        <v>0.2142508897319504</v>
+        <v>0.03756930476907727</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>2.127488</v>
       </c>
       <c r="I4">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="J4">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.03919966666666667</v>
+        <v>0.006923666666666667</v>
       </c>
       <c r="N4">
-        <v>0.117599</v>
+        <v>0.020771</v>
       </c>
       <c r="O4">
-        <v>0.172457585485283</v>
+        <v>0.01563438526027703</v>
       </c>
       <c r="P4">
-        <v>0.172457585485283</v>
+        <v>0.01563438526027703</v>
       </c>
       <c r="Q4">
-        <v>0.02779894014577778</v>
+        <v>0.004910005916444445</v>
       </c>
       <c r="R4">
-        <v>0.250190461312</v>
+        <v>0.044190053248</v>
       </c>
       <c r="S4">
-        <v>0.09142430068507251</v>
+        <v>0.008126261598017236</v>
       </c>
       <c r="T4">
-        <v>0.09142430068507251</v>
+        <v>0.008126261598017234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>2.127488</v>
       </c>
       <c r="I5">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="J5">
-        <v>0.5301262941134843</v>
+        <v>0.5197685398391702</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1881006666666667</v>
+        <v>0.435925</v>
       </c>
       <c r="N5">
-        <v>0.5643020000000001</v>
+        <v>1.307775</v>
       </c>
       <c r="O5">
-        <v>0.827542414514717</v>
+        <v>0.9843656147397229</v>
       </c>
       <c r="P5">
-        <v>0.827542414514717</v>
+        <v>0.9843656147397229</v>
       </c>
       <c r="Q5">
-        <v>0.1333939703751111</v>
+        <v>0.3091417354666667</v>
       </c>
       <c r="R5">
-        <v>1.200545733376</v>
+        <v>2.7822756192</v>
       </c>
       <c r="S5">
-        <v>0.4387019934284118</v>
+        <v>0.5116422782411529</v>
       </c>
       <c r="T5">
-        <v>0.4387019934284118</v>
+        <v>0.5116422782411529</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.05636633333333333</v>
+        <v>0.299804</v>
       </c>
       <c r="H6">
-        <v>0.169099</v>
+        <v>0.8994119999999999</v>
       </c>
       <c r="I6">
-        <v>0.04213599616462987</v>
+        <v>0.2197361686429383</v>
       </c>
       <c r="J6">
-        <v>0.04213599616462987</v>
+        <v>0.2197361686429384</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.03919966666666667</v>
+        <v>0.006923666666666667</v>
       </c>
       <c r="N6">
-        <v>0.117599</v>
+        <v>0.020771</v>
       </c>
       <c r="O6">
-        <v>0.172457585485283</v>
+        <v>0.01563438526027703</v>
       </c>
       <c r="P6">
-        <v>0.172457585485283</v>
+        <v>0.01563438526027703</v>
       </c>
       <c r="Q6">
-        <v>0.002209541477888889</v>
+        <v>0.002075742961333333</v>
       </c>
       <c r="R6">
-        <v>0.019885873301</v>
+        <v>0.018681686652</v>
       </c>
       <c r="S6">
-        <v>0.007266672160569213</v>
+        <v>0.003435439916180903</v>
       </c>
       <c r="T6">
-        <v>0.007266672160569214</v>
+        <v>0.003435439916180902</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.05636633333333333</v>
+        <v>0.299804</v>
       </c>
       <c r="H7">
-        <v>0.169099</v>
+        <v>0.8994119999999999</v>
       </c>
       <c r="I7">
-        <v>0.04213599616462987</v>
+        <v>0.2197361686429383</v>
       </c>
       <c r="J7">
-        <v>0.04213599616462987</v>
+        <v>0.2197361686429384</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1881006666666667</v>
+        <v>0.435925</v>
       </c>
       <c r="N7">
-        <v>0.5643020000000001</v>
+        <v>1.307775</v>
       </c>
       <c r="O7">
-        <v>0.827542414514717</v>
+        <v>0.9843656147397229</v>
       </c>
       <c r="P7">
-        <v>0.827542414514717</v>
+        <v>0.9843656147397229</v>
       </c>
       <c r="Q7">
-        <v>0.01060254487755556</v>
+        <v>0.1306920587</v>
       </c>
       <c r="R7">
-        <v>0.09542290389800001</v>
+        <v>1.1762285283</v>
       </c>
       <c r="S7">
-        <v>0.03486932400406065</v>
+        <v>0.2163007287267574</v>
       </c>
       <c r="T7">
-        <v>0.03486932400406066</v>
+        <v>0.2163007287267574</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,22 +903,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.225858</v>
+        <v>0.303342</v>
       </c>
       <c r="H8">
-        <v>0.677574</v>
+        <v>0.910026</v>
       </c>
       <c r="I8">
-        <v>0.1688375180530513</v>
+        <v>0.2223292846942876</v>
       </c>
       <c r="J8">
-        <v>0.1688375180530513</v>
+        <v>0.2223292846942876</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -927,28 +927,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.03919966666666667</v>
+        <v>0.006923666666666667</v>
       </c>
       <c r="N8">
-        <v>0.117599</v>
+        <v>0.020771</v>
       </c>
       <c r="O8">
-        <v>0.172457585485283</v>
+        <v>0.01563438526027703</v>
       </c>
       <c r="P8">
-        <v>0.172457585485283</v>
+        <v>0.01563438526027703</v>
       </c>
       <c r="Q8">
-        <v>0.008853558314000001</v>
+        <v>0.002100238894</v>
       </c>
       <c r="R8">
-        <v>0.07968202482599999</v>
+        <v>0.018902150046</v>
       </c>
       <c r="S8">
-        <v>0.02911731070275711</v>
+        <v>0.003475981691552306</v>
       </c>
       <c r="T8">
-        <v>0.02911731070275711</v>
+        <v>0.003475981691552305</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.225858</v>
+        <v>0.303342</v>
       </c>
       <c r="H9">
-        <v>0.677574</v>
+        <v>0.910026</v>
       </c>
       <c r="I9">
-        <v>0.1688375180530513</v>
+        <v>0.2223292846942876</v>
       </c>
       <c r="J9">
-        <v>0.1688375180530513</v>
+        <v>0.2223292846942876</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1881006666666667</v>
+        <v>0.435925</v>
       </c>
       <c r="N9">
-        <v>0.5643020000000001</v>
+        <v>1.307775</v>
       </c>
       <c r="O9">
-        <v>0.827542414514717</v>
+        <v>0.9843656147397229</v>
       </c>
       <c r="P9">
-        <v>0.827542414514717</v>
+        <v>0.9843656147397229</v>
       </c>
       <c r="Q9">
-        <v>0.04248404037200001</v>
+        <v>0.13223436135</v>
       </c>
       <c r="R9">
-        <v>0.3823563633480001</v>
+        <v>1.19010925215</v>
       </c>
       <c r="S9">
-        <v>0.1397202073502942</v>
+        <v>0.2188533030027353</v>
       </c>
       <c r="T9">
-        <v>0.1397202073502942</v>
+        <v>0.2188533030027353</v>
       </c>
     </row>
   </sheetData>
